--- a/biology/Zoologie/Jean-Baptiste-François_Gigot_d’Orcy/Jean-Baptiste-François_Gigot_d’Orcy.xlsx
+++ b/biology/Zoologie/Jean-Baptiste-François_Gigot_d’Orcy/Jean-Baptiste-François_Gigot_d’Orcy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Baptiste-Fran%C3%A7ois_Gigot_d%E2%80%99Orcy</t>
+          <t>Jean-Baptiste-François_Gigot_d’Orcy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste-François Gigot d’Orcy, né le 8 janvier 1737 à Sens, mort le 10 juin 1793 à Paris, est un entomologiste et minéralogiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Baptiste-Fran%C3%A7ois_Gigot_d%E2%80%99Orcy</t>
+          <t>Jean-Baptiste-François_Gigot_d’Orcy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1788, il est receveur général des finances de la généralité de Châlons-en-Champagne et demeure à Paris, place Vendôme paroisse St-Roch. Il est marié à Madeleine Marie Anne Delamonnoie.
 Il crée un important cabinet d'histoire naturelle dans sa demeure de la place Vendôme. Naturaliste et mécène, il fait décrire sa riche collection par Jacques-Louis-Florentin Engramelle et permet la publication d'ouvrages de naturalistes contemporains tels Guillaume-Antoine Olivier. 
